--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2002.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2002.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16270891712407</v>
+        <v>0.9410267472267151</v>
       </c>
       <c r="B1">
-        <v>2.26676576720888</v>
+        <v>3.140889644622803</v>
       </c>
       <c r="C1">
-        <v>8.030320819391481</v>
+        <v>6.86278772354126</v>
       </c>
       <c r="D1">
-        <v>2.494735975715048</v>
+        <v>1.956629157066345</v>
       </c>
       <c r="E1">
-        <v>1.22210571147674</v>
+        <v>1.375646591186523</v>
       </c>
     </row>
   </sheetData>
